--- a/biology/Botanique/Liondent_des_rochers/Liondent_des_rochers.xlsx
+++ b/biology/Botanique/Liondent_des_rochers/Liondent_des_rochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liondent des rochers, Liondent à tige nue, Liondent faux-pissenlit
 Le Liondent des rochers, Liondent à tige nue ou Liondent faux-pissenlit (Leontodon saxatilis) est une espèce de plante à fleurs du genre Leontodon et de la famille des Astéracées.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Leontodon taraxacoides (Villars) Merat (Liondent faux-pissenlit)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leontodon taraxacoides (Villars) Merat (Liondent faux-pissenlit).
 Thrincia saxatilis (Lam.)</t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantes herbacée vivace à capitules jaunes liguliflores
 Feuilles en rosette basale,
 Tiges nues, glabres
 Capitules solitaires
-Dessous des languettes du pourtour gris violet[2].</t>
+Dessous des languettes du pourtour gris violet.</t>
         </is>
       </c>
     </row>
